--- a/src/unsupervised_learning/clustering_result.xlsx
+++ b/src/unsupervised_learning/clustering_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\internship\COMP4710-Group-11\src\unsupervised_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E00B0-1B43-4298-BF6E-012B576F615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F33B0-99E0-4507-A891-8F9A08FBB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="195" windowWidth="14220" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7_modes" sheetId="1" r:id="rId1"/>
@@ -168,21 +168,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>191463</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115140</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109142</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CBF28F-5119-24D7-51C9-33F1CC1DF3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335E2D63-2836-374A-1D41-92C9A02E654D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -204,8 +204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6897063" cy="6020640"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="5362575" cy="4681142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -222,22 +222,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>305864</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1064</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7728DCC-E62E-5B86-9418-9173AF798E78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46B83E5-EFA9-E6FD-AE1E-31423E312823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,58 +259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7621064" cy="7621064"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>582089</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>10589</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678AD223-E0C8-BFCB-2D72-F93B2EF7BC19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7591425" y="9525"/>
-          <a:ext cx="7621064" cy="7621064"/>
+          <a:off x="428625" y="180975"/>
+          <a:ext cx="7772400" cy="7423495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F0F3C-EC1E-4695-9087-5DCECA1356AB}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1184,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,10 +1211,10 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,19 +1225,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.95005485592856598</v>
+        <v>0.975334198231956</v>
       </c>
       <c r="D2">
-        <v>0.957613251607348</v>
+        <v>0.97264371212394296</v>
       </c>
       <c r="E2">
-        <v>0.94852299165266996</v>
+        <v>0.98292556320644098</v>
       </c>
       <c r="F2">
-        <v>0.83216187818079701</v>
+        <v>0.91263744740836905</v>
       </c>
       <c r="G2">
-        <v>0.91341656927148396</v>
+        <v>0.885929330853929</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,22 +1245,22 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.95005485592856598</v>
+        <v>0.975334198231956</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.96946202773112</v>
+        <v>0.99010392104252798</v>
       </c>
       <c r="E3">
-        <v>0.91943427368949004</v>
+        <v>0.96389088754529895</v>
       </c>
       <c r="F3">
-        <v>0.94448267531567698</v>
+        <v>0.96173138206124198</v>
       </c>
       <c r="G3">
-        <v>0.969849915047032</v>
+        <v>0.95816315081762504</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,22 +1268,22 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.957613251607348</v>
+        <v>0.97264371212394296</v>
       </c>
       <c r="C4">
-        <v>0.96946202773112</v>
+        <v>0.99010392104252798</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.94974520502315296</v>
+        <v>0.95630033582842999</v>
       </c>
       <c r="F4">
-        <v>0.90342960575820697</v>
+        <v>0.95711836266102601</v>
       </c>
       <c r="G4">
-        <v>0.95440749666918501</v>
+        <v>0.94452847489839598</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1341,72 +1291,72 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.94852299165266996</v>
+        <v>0.98292556320644098</v>
       </c>
       <c r="C5">
-        <v>0.91943427368949004</v>
+        <v>0.96389088754529895</v>
       </c>
       <c r="D5">
-        <v>0.94974520502315296</v>
+        <v>0.95630033582842999</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.81567178053853295</v>
+        <v>0.88879943904028402</v>
       </c>
       <c r="G5">
-        <v>0.85275152378154595</v>
+        <v>0.86970053696590399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>0.83216187818079701</v>
+        <v>0.91263744740836905</v>
       </c>
       <c r="C6">
-        <v>0.94448267531567698</v>
+        <v>0.96173138206124198</v>
       </c>
       <c r="D6">
-        <v>0.90342960575820697</v>
+        <v>0.95711836266102601</v>
       </c>
       <c r="E6">
-        <v>0.81567178053853295</v>
+        <v>0.88879943904028402</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.95233569870717705</v>
+        <v>0.971926213674012</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.91341656927148396</v>
+        <v>0.885929330853929</v>
       </c>
       <c r="C7">
-        <v>0.969849915047032</v>
+        <v>0.95816315081762504</v>
       </c>
       <c r="D7">
-        <v>0.95440749666918501</v>
+        <v>0.94452847489839598</v>
       </c>
       <c r="E7">
-        <v>0.85275152378154595</v>
+        <v>0.86970053696590399</v>
       </c>
       <c r="F7">
-        <v>0.95233569870717705</v>
+        <v>0.971926213674012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G7">
+  <conditionalFormatting sqref="A1:G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1427,7 +1377,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFE414B-0BB5-40B1-AE81-68417CFD6D53}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
